--- a/StructureDefinition-lmdi-municipalitycode.xlsx
+++ b/StructureDefinition-lmdi-municipalitycode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-04-09</t>
+    <t>2025-03-10</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Coded value for municipality/county Norwegian kommune</t>
+    <t>Kodet verdi for kommune</t>
   </si>
   <si>
     <t>Purpose</t>
